--- a/biology/Médecine/Philippe-Jean_Pelletan/Philippe-Jean_Pelletan.xlsx
+++ b/biology/Médecine/Philippe-Jean_Pelletan/Philippe-Jean_Pelletan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe-Jean Pelletan né le 4 mai 1747 à Paris et mort le 26 septembre 1829 à Bourg-la-Reine[1] est un chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe-Jean Pelletan né le 4 mai 1747 à Paris et mort le 26 septembre 1829 à Bourg-la-Reine est un chirurgien français.
 Il eut une existence agitée, pleine de traverses et de vicissitudes.
 </t>
         </is>
@@ -512,19 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un maitre en chirurgie de peu de renom, Philippe-Jean Pelletan fit, quoique sans fortune, de bonnes études littéraires, après quoi il se livra avec ardeur à l’étude de l’anatomie et de la chirurgie. Privé de livres, un de ses amis lui procura l’anatomie de Winslow. En échange de ce petit service, il apprit l’anatomie à son condisciple, car il enseigna dès qu’il commença à savoir, ce qui hâta ses progrès et perfectionna son élocution.
-Une fois à l’Hôtel-Dieu, il ne quitta plus cet établissement, montrant pour les opérations une très grande habileté, pour les pauvres malades beaucoup de commisération, et pour le professorat public un talent des plus remarqués. On le vit successivement chirurgien gagnant maîtrise sous le docteur Jean-Nicolas Moreau, son maître et son ancien professeur aux écoles de santé et au collège de chirurgie, professeur de clinique à l’hospice de perfectionnement avant Dubois, chirurgien major à l’Armée des Pyrénées, puis à l’Armée du Nord, membre du conseil de santé des armées, membre de l’Académie royale de chirurgie, membre de la Légion d'honneur[2]. dès la première promotion (aux Invalides, juillet 1804), professeur à la faculté de médecine dès sa création, chirurgien en chef de l’Hôtel-Dieu après Desault et avant Dupuytren, chirurgien consultant de Napoléon Ier, et de plus membre de l’Institut et membre de l’Académie de médecine[3] dès leur fondation. Il fut élu membre de l'Académie des sciences[4] en 1795.
-L'histoire du cœur de Louis XVII
-Pelletan est également connu pour avoir prodigué, après Desault et avec Chopart, des soins pleins d’humanité et de douceur à Louis XVII au Temple. Après la mort de ce dernier le 8 juin 1795, Pelletan seul, Desault étant mort depuis le 1er juin précédent et Chopart le 9, eut à rendre compte à la Convention de l’état viscéral du dauphin. Au cours de l'autopsie, il subtilise le cœur du jeune défunt à l'insu de ses collègues, les docteurs Jean-Baptiste Dumangin (1744-1826), Pierre Lassus (1741-1807) et Nicolas Dieudonné Jeanroy (1750-1816). Une fois rentré chez lui, Pelletan enferma le cœur du défunt dans un vase de cristal rempli d'esprit de vin, qu'il cacha dans sa bibliothèque, derrière ses livres. Il y resta pendant près de 10 ans[5].
-L'alcool évaporé lentement, le cœur desséché est ainsi conservé. Vers 1810, un élève de Pelletan, Jean-Henri Tillos, vole la relique. Quelques années plus tard, Tillos meurt de la tuberculose et exige sur son lit de mort que l'objet soit rendu à Pelletan. À la Première Restauration, Pelletan entré en contact avec la famille royale, veut lui restituer le cœur. Accusé de sympathie bonapartiste, il est repoussé, et ne parvient pas à être reçu par Louis XVIII. Le retour de Napoléon met un terme à ses démarches. Lors de la Seconde Restauration, Pelletan tente encore de donner le cœur à la famille royale, en vain. Des enquêtes sont engagées à son encontre, et Pelletan se défendit. La relique restera cependant cachée dans sa bibliothèque. Le 23 mai 1823, le médecin remet le cœur à l'archevêque de Paris, Hyacinthe-Louis de Quélen, qui s'engage à le remettre à Charles X. En 1829, Pelletan meurt, son fils Philippe Gabriel, également médecin, conserve la relique jusqu'à sa mort en 1879.
-Sous l'Empire
-Réunissant tous les titres et toutes les plus hautes fonctions et les dignités de sa robe et de son art, Pelletan fut en même temps un des grands praticiens de la ville. Nonobstant tant de possessions et tant d’éclat, Pelletan ne fut jamais heureux ni riche. À chaque époque de sa vie, sa situation eut de l’instabilité, sa conduite du décousu et de l’inconséquence. Ainsi, le premier il avait fait la réputation clinique de l’hospice de perfectionnement, et ce fut Antoine Dubois, lui-même fort habile, mais plus judicieux et plus maître de lui, qui en recueillit les fruits et la gloire : l’hôpital, de même que la rue, ont porté le nom de Dubois.
-Pelletan eut, avec ses autres rivaux, les mêmes mécomptes. C’était lui que ses mérites et sa constante résilience désignaient comme le successeur de son maître, le chirurgien Moreau, et ce fut Desault, chirurgien d’un autre hôpital, qui obtint la place. Connu de l’empereur, et grandement estimé de lui, il pouvait prétendre à devenir son premier chirurgien, et ce fut au baron Boyer que Corvisart donna la préférence. Chef et maître de Dupuytren, son adjoint à l’Hôtel-Dieu, celui-ci le fit évincer de sa place et s’en empara ; Pelletan ne conserva que le vain titre d’honoraire.
-Tous ses émules, excepté Desault, qui était mort en 1795, furent nommés barons de l’empire. Lui seul eut à regretter cette dignité, et sans doute il trouva dans son cœur assez de philosophie pour s’en consoler. Resté professeur à l’École de Médecine, et professeur si éloquent qu’on l’avait surnommé dès sa jeunesse « le Chrysostome des chirurgiens » ou « Bouche d’or » et qu’on le comparait à Fourcroy, passa néanmoins successivement de la chaire de clinique à celle des opérations, et de celle-ci aux accouchements. Après quoi l’ordonnance Corbière du 2 février 1813 le dépouilla, en même temps que dix de sa carrière presque aussi pauvre qu’au premier jour de ses études. Il ne conservait guère pour tout traitement régulier, à l’âge de soixante-dix-sept ans, que sa pension de membre titulaire de l’Institut, cette providence des génies imprévoyants.
-Pelletan inventa peu, précisément parce qu’il savait beaucoup. Fort habile et fort exercé, il n’attachait d’ailleurs qu’un prix médiocre aux innovations en fait d’instruments et de procédés opératoires. Il avait publié en 1810, âgé alors de près de 63 ans , une Clinique chirurgicale, en 3 vol. in-8° qui aurait eu plus de retentissement et plus de succès s’il l’eut mise au jour dix ans plus tôt, alors qu’il aurait pu, prendre le soin personnel de la commenter et d’en faire sentir le prix dans ses cours.
-Pelletan meurt le 26 septembre 1829 au 96, avenue du Général-Leclerc à Bourg-la-Reine, déclaré par son voisin le pharmacien Delpech. Il est inhumé au cimetière de Bourg-la-Reine[6]. Il laissait une fille et deux fils : Pierre et Gabriel Pelletan. Ce dernier compta parmi les bons et honorables praticiens de Paris tandis que Pierre (1782-1845), fut non moins célèbre et non moins malheureux que son père.
+Une fois à l’Hôtel-Dieu, il ne quitta plus cet établissement, montrant pour les opérations une très grande habileté, pour les pauvres malades beaucoup de commisération, et pour le professorat public un talent des plus remarqués. On le vit successivement chirurgien gagnant maîtrise sous le docteur Jean-Nicolas Moreau, son maître et son ancien professeur aux écoles de santé et au collège de chirurgie, professeur de clinique à l’hospice de perfectionnement avant Dubois, chirurgien major à l’Armée des Pyrénées, puis à l’Armée du Nord, membre du conseil de santé des armées, membre de l’Académie royale de chirurgie, membre de la Légion d'honneur. dès la première promotion (aux Invalides, juillet 1804), professeur à la faculté de médecine dès sa création, chirurgien en chef de l’Hôtel-Dieu après Desault et avant Dupuytren, chirurgien consultant de Napoléon Ier, et de plus membre de l’Institut et membre de l’Académie de médecine dès leur fondation. Il fut élu membre de l'Académie des sciences en 1795.
 </t>
         </is>
       </c>
@@ -550,10 +555,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'histoire du cœur de Louis XVII</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelletan est également connu pour avoir prodigué, après Desault et avec Chopart, des soins pleins d’humanité et de douceur à Louis XVII au Temple. Après la mort de ce dernier le 8 juin 1795, Pelletan seul, Desault étant mort depuis le 1er juin précédent et Chopart le 9, eut à rendre compte à la Convention de l’état viscéral du dauphin. Au cours de l'autopsie, il subtilise le cœur du jeune défunt à l'insu de ses collègues, les docteurs Jean-Baptiste Dumangin (1744-1826), Pierre Lassus (1741-1807) et Nicolas Dieudonné Jeanroy (1750-1816). Une fois rentré chez lui, Pelletan enferma le cœur du défunt dans un vase de cristal rempli d'esprit de vin, qu'il cacha dans sa bibliothèque, derrière ses livres. Il y resta pendant près de 10 ans.
+L'alcool évaporé lentement, le cœur desséché est ainsi conservé. Vers 1810, un élève de Pelletan, Jean-Henri Tillos, vole la relique. Quelques années plus tard, Tillos meurt de la tuberculose et exige sur son lit de mort que l'objet soit rendu à Pelletan. À la Première Restauration, Pelletan entré en contact avec la famille royale, veut lui restituer le cœur. Accusé de sympathie bonapartiste, il est repoussé, et ne parvient pas à être reçu par Louis XVIII. Le retour de Napoléon met un terme à ses démarches. Lors de la Seconde Restauration, Pelletan tente encore de donner le cœur à la famille royale, en vain. Des enquêtes sont engagées à son encontre, et Pelletan se défendit. La relique restera cependant cachée dans sa bibliothèque. Le 23 mai 1823, le médecin remet le cœur à l'archevêque de Paris, Hyacinthe-Louis de Quélen, qui s'engage à le remettre à Charles X. En 1829, Pelletan meurt, son fils Philippe Gabriel, également médecin, conserve la relique jusqu'à sa mort en 1879.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe-Jean_Pelletan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe-Jean_Pelletan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous l'Empire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réunissant tous les titres et toutes les plus hautes fonctions et les dignités de sa robe et de son art, Pelletan fut en même temps un des grands praticiens de la ville. Nonobstant tant de possessions et tant d’éclat, Pelletan ne fut jamais heureux ni riche. À chaque époque de sa vie, sa situation eut de l’instabilité, sa conduite du décousu et de l’inconséquence. Ainsi, le premier il avait fait la réputation clinique de l’hospice de perfectionnement, et ce fut Antoine Dubois, lui-même fort habile, mais plus judicieux et plus maître de lui, qui en recueillit les fruits et la gloire : l’hôpital, de même que la rue, ont porté le nom de Dubois.
+Pelletan eut, avec ses autres rivaux, les mêmes mécomptes. C’était lui que ses mérites et sa constante résilience désignaient comme le successeur de son maître, le chirurgien Moreau, et ce fut Desault, chirurgien d’un autre hôpital, qui obtint la place. Connu de l’empereur, et grandement estimé de lui, il pouvait prétendre à devenir son premier chirurgien, et ce fut au baron Boyer que Corvisart donna la préférence. Chef et maître de Dupuytren, son adjoint à l’Hôtel-Dieu, celui-ci le fit évincer de sa place et s’en empara ; Pelletan ne conserva que le vain titre d’honoraire.
+Tous ses émules, excepté Desault, qui était mort en 1795, furent nommés barons de l’empire. Lui seul eut à regretter cette dignité, et sans doute il trouva dans son cœur assez de philosophie pour s’en consoler. Resté professeur à l’École de Médecine, et professeur si éloquent qu’on l’avait surnommé dès sa jeunesse « le Chrysostome des chirurgiens » ou « Bouche d’or » et qu’on le comparait à Fourcroy, passa néanmoins successivement de la chaire de clinique à celle des opérations, et de celle-ci aux accouchements. Après quoi l’ordonnance Corbière du 2 février 1813 le dépouilla, en même temps que dix de sa carrière presque aussi pauvre qu’au premier jour de ses études. Il ne conservait guère pour tout traitement régulier, à l’âge de soixante-dix-sept ans, que sa pension de membre titulaire de l’Institut, cette providence des génies imprévoyants.
+Pelletan inventa peu, précisément parce qu’il savait beaucoup. Fort habile et fort exercé, il n’attachait d’ailleurs qu’un prix médiocre aux innovations en fait d’instruments et de procédés opératoires. Il avait publié en 1810, âgé alors de près de 63 ans , une Clinique chirurgicale, en 3 vol. in-8° qui aurait eu plus de retentissement et plus de succès s’il l’eut mise au jour dix ans plus tôt, alors qu’il aurait pu, prendre le soin personnel de la commenter et d’en faire sentir le prix dans ses cours.
+Pelletan meurt le 26 septembre 1829 au 96, avenue du Général-Leclerc à Bourg-la-Reine, déclaré par son voisin le pharmacien Delpech. Il est inhumé au cimetière de Bourg-la-Reine. Il laissait une fille et deux fils : Pierre et Gabriel Pelletan. Ce dernier compta parmi les bons et honorables praticiens de Paris tandis que Pierre (1782-1845), fut non moins célèbre et non moins malheureux que son père.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe-Jean_Pelletan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe-Jean_Pelletan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) De hernia inguinali congenita, [Theses anatomico-chirurgicae], typis Michaelis Lambert, 1775.
 Rapport fait à l'Académie de Chirurgie en la séance du jeudi 24 mai 1792 sur la maladie, la mort &amp; l'ouverture du corps de M. Louis, [Paris], 1792, Texte intégral.
